--- a/TBEA/BusinessPerformance/Documentation/dev-template.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/dev-template.xlsx
@@ -599,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -729,6 +729,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="745">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2660,7 +2669,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="563" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="563" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3756,7 +3765,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3767,7 +3776,7 @@
     <col min="4" max="4" width="10.375" customWidth="1"/>
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3780,6 +3789,10 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -4026,7 +4039,7 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="5">

--- a/TBEA/BusinessPerformance/Documentation/dev-template.xlsx
+++ b/TBEA/BusinessPerformance/Documentation/dev-template.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="表分类名" sheetId="24" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>数据类型</t>
   </si>
@@ -49,10 +49,6 @@
   <si>
     <t>字段说明</t>
     <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -139,9 +135,6 @@
     <t>文字</t>
   </si>
   <si>
-    <t>十进制数值</t>
-  </si>
-  <si>
     <t>数值</t>
   </si>
   <si>
@@ -154,16 +147,10 @@
     <t>时间</t>
   </si>
   <si>
-    <t>无限</t>
-  </si>
-  <si>
     <t>18,4</t>
   </si>
   <si>
     <t>主键</t>
-  </si>
-  <si>
-    <t>唯一</t>
   </si>
   <si>
     <t>非空</t>
@@ -200,6 +187,17 @@
   </si>
   <si>
     <t>是否录入(Y)</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>值集</t>
+  </si>
+  <si>
+    <t>A(A,B,C)</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
 </sst>
@@ -3765,7 +3763,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3777,7 +3775,7 @@
     <col min="5" max="5" width="6.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
@@ -3814,27 +3812,27 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
@@ -3843,38 +3841,34 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J3" s="7"/>
-      <c r="O3" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G4" s="6" t="b">
         <v>0</v>
@@ -3888,24 +3882,26 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="E5" s="3">
+        <v>100</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3915,30 +3911,30 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O6" s="7">
         <v>100</v>
@@ -3946,21 +3942,21 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3971,19 +3967,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
@@ -3991,21 +3987,21 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="O8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="5"/>
@@ -4018,16 +4014,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="5"/>
@@ -4042,11 +4038,11 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F10">
       <formula1>"主键,唯一,非空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D6:D10">
       <formula1>"文字,十进制数值,数值,整数,百分数,日期,时间"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:J10">
@@ -4058,6 +4054,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="E3:E10">
       <formula1>$O$3:$O$8</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
+      <formula1>"文字,值集,数值,整数,百分数,日期,时间"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
